--- a/Applied_Optimization_Models/Lab_TessierAshpoule/KursWork/calc.xlsx
+++ b/Applied_Optimization_Models/Lab_TessierAshpoule/KursWork/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Studies\SUAI_5sem\Applied_Optimization_Models\Lab_TessierAshpoule\KursWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59575E6D-4236-4E04-AF20-4B00DC8A27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982532DC-8AC6-427F-9312-5D9B5AB8F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13170" windowHeight="13710" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Условие" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -147,9 +147,6 @@
     <t>Условие</t>
   </si>
   <si>
-    <t>Затраченно</t>
-  </si>
-  <si>
     <t>Загруженность линии</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t xml:space="preserve">L = </t>
   </si>
   <si>
-    <t>Произведенно</t>
-  </si>
-  <si>
     <t>Стоимость работы</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>1 ч. работы, $</t>
+  </si>
+  <si>
+    <t>Произведено</t>
+  </si>
+  <si>
+    <t>Затрачено</t>
   </si>
 </sst>
 </file>
@@ -863,6 +863,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,24 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,14 +1299,14 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="49">
         <v>3500</v>
       </c>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="9">
         <v>25</v>
       </c>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="86"/>
+      <c r="B13" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="92"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
@@ -1755,7 +1755,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="52"/>
       <c r="C14" s="51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>1</v>
@@ -1779,17 +1779,17 @@
         <v>7</v>
       </c>
       <c r="K14" s="70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
       <c r="N14" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="88"/>
+        <v>33</v>
+      </c>
+      <c r="O14" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="77"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="2"/>
       <c r="S14" s="1"/>
@@ -1829,7 +1829,7 @@
         <v>1151.9999999999998</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="25">
         <f>24*16*C15</f>
@@ -1883,7 +1883,7 @@
         <v>1152</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16" s="26">
         <f t="shared" ref="M16:M19" si="1">24*16*C16</f>
@@ -1937,7 +1937,7 @@
         <v>504.32307692307671</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" s="26">
         <f t="shared" si="1"/>
@@ -1991,7 +1991,7 @@
         <v>768</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="26">
         <f t="shared" si="1"/>
@@ -2045,7 +2045,7 @@
         <v>384</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" s="28">
         <f t="shared" si="1"/>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="90"/>
+      <c r="B21" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="79"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2110,8 +2110,8 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="51" t="s">
         <v>1</v>
       </c>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="32">
         <f t="shared" ref="D23:J27" si="3">IF(D15&gt;0,D15/IF(D3="-",99999,D3),"")</f>
         <v>1256</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="32">
         <f t="shared" si="3"/>
         <v>803.07692307692309</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="32">
         <f t="shared" si="3"/>
         <v>1440.9230769230765</v>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="84"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="35" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2445,25 +2445,25 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="80"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="19">
         <f>D10</f>
         <v>3500</v>
@@ -2515,7 +2515,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="32" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="82"/>
+      <c r="B32" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="88"/>
       <c r="D32" s="59">
         <f t="shared" ref="D32:J32" si="6">D29*D11</f>
         <v>87499.999999999971</v>
@@ -2564,7 +2564,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O32" s="23">
         <f>K32-SUM(N15:N19)</f>
@@ -2587,7 +2587,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3200,17 +3200,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="B21:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
